--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="7095" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="7095"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Filtering phase" sheetId="2" r:id="rId2"/>
-    <sheet name="Project Statistics" sheetId="3" r:id="rId3"/>
-    <sheet name="BugReport statistics" sheetId="4" r:id="rId4"/>
-    <sheet name="BR with Test-related codes" sheetId="5" r:id="rId5"/>
+    <sheet name="Data schema" sheetId="6" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
+    <sheet name="Filtering phase" sheetId="2" r:id="rId3"/>
+    <sheet name="Project Statistics" sheetId="3" r:id="rId4"/>
+    <sheet name="BugReport statistics" sheetId="4" r:id="rId5"/>
+    <sheet name="BR with Test-related codes" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="425">
   <si>
     <t>#Bugs</t>
   </si>
@@ -1332,6 +1333,162 @@
   </si>
   <si>
     <t>with TF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR_author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRopenT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRcloseT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR_text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRsummary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRdescription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit_author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commitT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changed_files</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_change_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD/COPY/DELETE/MODIFY/RENAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_Nmethod</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_old_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_new_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunk_k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ismethod</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 or 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>added_lines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleted_lines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mehod_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method_params</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method_startline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method_endline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values that change only change_type == 'MODIFY'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data that change only change_type == 'MODIFY'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data that change only change_type == 'MODIFY' and ismethod == '1'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1344,7 +1501,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1377,6 +1534,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1386,10 +1559,93 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1406,7 +1662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,6 +1764,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5145,6 +5452,124 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03559F97-1B11-4410-BC3F-DE6022F2A05C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267325" y="590550"/>
+          <a:ext cx="6257925" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>Unit </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
+            <a:t>size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>: Method length in lines of code; low risk threshold 15 lines.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>Unit </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
+            <a:t>complexity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>: Method cyclomatic complexity; low risk threshold 5.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>Unit </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
+            <a:t>interfacing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>: Method number of parameters: low risk threshold 2.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>179294</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -5856,12 +6281,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7">
         <row r="13">
           <cell r="AM13" t="str">
@@ -6068,11 +6493,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6341,6 +6766,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="35" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="D9" s="35" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="D10" s="35" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="D11" s="35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="35" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="35" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="39"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D19" s="35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D20" s="35" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F23" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F24" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F25" s="41"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G27" s="35" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G28" s="35" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G29" s="35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG66"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -13183,11 +13851,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -13357,7 +14025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL63"/>
   <sheetViews>
@@ -17916,7 +18584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN60"/>
   <sheetViews>
@@ -23068,7 +23736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -12,15 +12,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="7095"/>
   </bookViews>
   <sheets>
-    <sheet name="Data schema" sheetId="6" r:id="rId1"/>
-    <sheet name="Summary" sheetId="1" r:id="rId2"/>
-    <sheet name="Filtering phase" sheetId="2" r:id="rId3"/>
-    <sheet name="Project Statistics" sheetId="3" r:id="rId4"/>
-    <sheet name="BugReport statistics" sheetId="4" r:id="rId5"/>
-    <sheet name="BR with Test-related codes" sheetId="5" r:id="rId6"/>
+    <sheet name="Full-Data schema" sheetId="7" r:id="rId1"/>
+    <sheet name="Simple-Data schema" sheetId="6" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId3"/>
+    <sheet name="Filtering phase" sheetId="2" r:id="rId4"/>
+    <sheet name="Project Statistics" sheetId="3" r:id="rId5"/>
+    <sheet name="BugReport statistics" sheetId="4" r:id="rId6"/>
+    <sheet name="BR with Test-related codes" sheetId="5" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="440">
   <si>
     <t>#Bugs</t>
   </si>
@@ -1490,6 +1491,65 @@
   <si>
     <t>Data that change only change_type == 'MODIFY' and ismethod == '1'</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit_complexity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit_NLOC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit_CCN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit_Nprams</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_complexity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_NLOC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_CCN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_NToken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method_complexity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method_NLOC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>metod_CCN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method_NToken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method_nesting_level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values that change only change_type == 'MODIFY'</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1619,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1650,6 +1710,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1662,7 +1733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1759,12 +1830,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1792,20 +1857,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1814,6 +1876,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5453,6 +5542,120 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAF047C-441D-492E-89AE-B6B62B6D4F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619750" y="552450"/>
+          <a:ext cx="6257925" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>Unit </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
+            <a:t>size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>: Method length in lines of code; low risk threshold 15 lines.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>Unit </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
+            <a:t>complexity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>: Method cyclomatic complexity; low risk threshold 5.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>Unit </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
+            <a:t>interfacing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>: Method number of parameters: low risk threshold 2.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -5566,7 +5769,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6281,12 +6484,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="13">
           <cell r="AM13" t="str">
@@ -6493,11 +6696,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6766,10 +6969,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="J23" sqref="J22:J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="33" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="33" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="D9" s="33" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="D10" s="33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="D11" s="33" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="33" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="33" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="36"/>
+      <c r="C17" s="33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="34"/>
+      <c r="C18" s="33" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="37"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D22" s="33" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D23" s="33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D24" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D25" s="56"/>
+      <c r="E25" s="33" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="34"/>
+      <c r="E26" s="33" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D27" s="37"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F29" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F30" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="G30" s="42"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G34" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G35" s="33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G36" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="33" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="33" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H39" s="33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A32:E32"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6784,213 +7294,216 @@
     <col min="9" max="9" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="33" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="33" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="33" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="35" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="33" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="39"/>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="D9" s="35" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="D9" s="33" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="D10" s="35" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="D10" s="33" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="D11" s="35" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="D11" s="33" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+    <row r="12" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="33" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="35" t="s">
+      <c r="O13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="33" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="35" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="33" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="37"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="33" t="s">
         <v>408</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="43" t="s">
         <v>422</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="33" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="33" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="39"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="35" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="40" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F25" s="41"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="37" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="33" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="33" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="33" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="33" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7007,7 +7520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG66"/>
   <sheetViews>
@@ -7089,11 +7602,11 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="27"/>
       <c r="P2" s="21" t="s">
         <v>8</v>
@@ -13851,7 +14364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -14025,7 +14538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL63"/>
   <sheetViews>
@@ -14042,28 +14555,28 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
@@ -14086,15 +14599,15 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="6" t="s">
         <v>257</v>
       </c>
@@ -18584,7 +19097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN60"/>
   <sheetViews>
@@ -23736,7 +24249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
